--- a/biology/Zoologie/Dilong/Dilong.xlsx
+++ b/biology/Zoologie/Dilong/Dilong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dilong paradoxus
 Dilong est un genre éteint de dinosaures carnivores théropodes, un Tyrannosauroidea basal, qui vivait au Crétacé inférieur, au cours du Barrémien, il y a environ entre 129 et 125 Ma (millions d'années). Ses fossiles ont été découverts en Chine dans le biote de Jehol.
-Une seule espèce a été décrite : Dilong paradoxus[1],[2].
+Une seule espèce a été décrite : Dilong paradoxus,.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dilong paradoxus signifie « Dragon Empereur paradoxal » et vient du chinois 帝 dì empereur et 龙/龍 lóng dragon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dilong paradoxus signifie « Dragon Empereur paradoxal » et vient du chinois 帝 dì empereur et 龙/龍 lóng dragon.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens de Dilong ont été découverts dans la formation d'Yixian, dans l'ouest de la province chinoise du Liaoning[1].
-Quatre spécimens sont connus. L'holotype de Dilong paradoxus, IVPP V14243, un squelette presque complet semi-articulé incluant un crâne. Il a été mis au jour près de la localité de Lujiatun, proche de la ville de Beipiao et provient des couches Lujiatun, datées d'environ 128 millions d'années. Deux autres spécimens de cette espèce, IVPP V14242 et TNP01109, proviennent également de ce site. Le quatrième spécimen fragmentaire, IVPP V11579, peut-être appartenant à une autre espèce du genre Dilong, a été découvert près de la localité de Zhangjiugou, dans les couches Jianshangou de la formation d'Yixian, datées d'environ 125 millions d'années. Ce site a également livré des spécimens de Caudipteryx, des petits théropodes maniraptoriens[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens de Dilong ont été découverts dans la formation d'Yixian, dans l'ouest de la province chinoise du Liaoning.
+Quatre spécimens sont connus. L'holotype de Dilong paradoxus, IVPP V14243, un squelette presque complet semi-articulé incluant un crâne. Il a été mis au jour près de la localité de Lujiatun, proche de la ville de Beipiao et provient des couches Lujiatun, datées d'environ 128 millions d'années. Deux autres spécimens de cette espèce, IVPP V14242 et TNP01109, proviennent également de ce site. Le quatrième spécimen fragmentaire, IVPP V11579, peut-être appartenant à une autre espèce du genre Dilong, a été découvert près de la localité de Zhangjiugou, dans les couches Jianshangou de la formation d'Yixian, datées d'environ 125 millions d'années. Ce site a également livré des spécimens de Caudipteryx, des petits théropodes maniraptoriens,.
 </t>
         </is>
       </c>
@@ -576,11 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de Dilong paradoxus est estimée à 1,60 mètre de long pour un poids de 15 kilogrammes[4],[5].
-Plumes
-Il possédait des « protoplumes », structures filamenteuses considérées comme des plumes primitives[1] mais certaines de ses plumes seraient aussi de forme duveteuse, c'est-à-dire ramifiées mais non pennées.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de Dilong paradoxus est estimée à 1,60 mètre de long pour un poids de 15 kilogrammes,.
 </t>
         </is>
       </c>
@@ -606,15 +622,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plumes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il possédait des « protoplumes », structures filamenteuses considérées comme des plumes primitives mais certaines de ses plumes seraient aussi de forme duveteuse, c'est-à-dire ramifiées mais non pennées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dilong</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilong</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa première description en 2004, Dilong était considéré comme l'un des tout premiers Tyrannosauroidea, un groupe qui inclut les tyrannosauridés, des animaux plus récents et de plus grande taille , comme le célèbre Tyrannosaurus rex. La description de nouveaux genres de tyrannosauroïdes basaux depuis cette date relativise cette ancienneté, avec les genres Yutyrannus et Eotyrannus d'âge comparable, et surtout les genres jurassiques nettement plus anciens Kileskus, Proceratosaurus, Guanlong, Stokesosaurus et Juratyrant qui datent d'il y a environ entre 170 et 145 Ma (millions d'années)[6],[7].
-En 2007, Turner et ses collègues réfutent l'appartenance de Dilong aux Tyrannosauroidea[8]. Cependant, au contraire, toutes les études postérieures ont depuis confirmé l'attribution initiale de Dilong aux Tyrannosauroidea[9],[10],[7].
-Cladogramme
-Le cladogramme suivant, issu de l'étude phylogénétique conduite par Stephen Brusatte et Thomas Carr, montre cette position basale de Dilong[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa première description en 2004, Dilong était considéré comme l'un des tout premiers Tyrannosauroidea, un groupe qui inclut les tyrannosauridés, des animaux plus récents et de plus grande taille , comme le célèbre Tyrannosaurus rex. La description de nouveaux genres de tyrannosauroïdes basaux depuis cette date relativise cette ancienneté, avec les genres Yutyrannus et Eotyrannus d'âge comparable, et surtout les genres jurassiques nettement plus anciens Kileskus, Proceratosaurus, Guanlong, Stokesosaurus et Juratyrant qui datent d'il y a environ entre 170 et 145 Ma (millions d'années),.
+En 2007, Turner et ses collègues réfutent l'appartenance de Dilong aux Tyrannosauroidea. Cependant, au contraire, toutes les études postérieures ont depuis confirmé l'attribution initiale de Dilong aux Tyrannosauroidea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dilong</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilong</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant, issu de l'étude phylogénétique conduite par Stephen Brusatte et Thomas Carr, montre cette position basale de Dilong :
 </t>
         </is>
       </c>
